--- a/Кабинет математики.xlsx
+++ b/Кабинет математики.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Расписание кабинета" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="175">
   <si>
     <t>Фамилия</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Успеваемость</t>
   </si>
   <si>
-    <t>Пол</t>
-  </si>
-  <si>
     <t xml:space="preserve">Агатьева </t>
   </si>
   <si>
@@ -310,9 +307,6 @@
     <t>id Преподавателя</t>
   </si>
   <si>
-    <t>Образование</t>
-  </si>
-  <si>
     <t>Андронова</t>
   </si>
   <si>
@@ -368,13 +362,196 @@
   </si>
   <si>
     <t>Дата рождения</t>
+  </si>
+  <si>
+    <t>Алгебра</t>
+  </si>
+  <si>
+    <t>Распорядок работы кабинета</t>
+  </si>
+  <si>
+    <t>id Урока</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Поле</t>
+  </si>
+  <si>
+    <t>Тип данных</t>
+  </si>
+  <si>
+    <t>Длина (в байтах)</t>
+  </si>
+  <si>
+    <t>Справочник по полу</t>
+  </si>
+  <si>
+    <t>id Пола</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Физика</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Уникальный идентификатор ученика</t>
+  </si>
+  <si>
+    <t>Уникальный идентификатор пола</t>
+  </si>
+  <si>
+    <t>Дата рождения ученика</t>
+  </si>
+  <si>
+    <t>Номер класса ученика</t>
+  </si>
+  <si>
+    <t>Средняя оценка по предмету</t>
+  </si>
+  <si>
+    <t>Фамилия ученика</t>
+  </si>
+  <si>
+    <t>Имя ученика</t>
+  </si>
+  <si>
+    <t>Отчество ученика (при наличии)</t>
+  </si>
+  <si>
+    <t>Справочник по специализации</t>
+  </si>
+  <si>
+    <t>id Специализации</t>
+  </si>
+  <si>
+    <t>Русский язык</t>
+  </si>
+  <si>
+    <t>Литература</t>
+  </si>
+  <si>
+    <t>Анлгийский язык</t>
+  </si>
+  <si>
+    <t>Геометрия</t>
+  </si>
+  <si>
+    <t>ИКТ</t>
+  </si>
+  <si>
+    <t>История</t>
+  </si>
+  <si>
+    <t>Обществознание</t>
+  </si>
+  <si>
+    <t>География</t>
+  </si>
+  <si>
+    <t>Биология</t>
+  </si>
+  <si>
+    <t>Музыка</t>
+  </si>
+  <si>
+    <t>ИЗО</t>
+  </si>
+  <si>
+    <t>Технология</t>
+  </si>
+  <si>
+    <t>Физ. культура</t>
+  </si>
+  <si>
+    <t>ОБЖ</t>
+  </si>
+  <si>
+    <t>Химия</t>
+  </si>
+  <si>
+    <t>Справочник по образованию</t>
+  </si>
+  <si>
+    <t>Среднее</t>
+  </si>
+  <si>
+    <t>Среднее профессиональное</t>
+  </si>
+  <si>
+    <t>id Образования</t>
+  </si>
+  <si>
+    <t>Уникальный идентификатор преподавателя</t>
+  </si>
+  <si>
+    <t>Уникальный идентификатор специализации</t>
+  </si>
+  <si>
+    <t>Уникальный идентификатор образования</t>
+  </si>
+  <si>
+    <t>Фамилия преподавателя</t>
+  </si>
+  <si>
+    <t>Имя преподавателя</t>
+  </si>
+  <si>
+    <t>Отчество преподавателя</t>
+  </si>
+  <si>
+    <t>Дата рождения преподавателя</t>
+  </si>
+  <si>
+    <t>Сколько лет преподаватель работал по указанной специализации</t>
+  </si>
+  <si>
+    <t>Уникальный идентификатор парты</t>
+  </si>
+  <si>
+    <t>Ряд, на котором расположены парты</t>
+  </si>
+  <si>
+    <t>TimeStamp</t>
+  </si>
+  <si>
+    <t>Уникальный идентификатор урока</t>
+  </si>
+  <si>
+    <t>Дата и время начала урока</t>
+  </si>
+  <si>
+    <t>Дата и время конца урока</t>
+  </si>
+  <si>
+    <t>Мужской или женский пол</t>
+  </si>
+  <si>
+    <t>Название предмета</t>
+  </si>
+  <si>
+    <t>Вид полученного образования</t>
+  </si>
+  <si>
+    <t>Место ученика за партой</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,6 +571,15 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -433,7 +619,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -717,11 +903,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -750,6 +971,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -759,23 +995,89 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1062,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X35"/>
+  <dimension ref="A1:X61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,121 +1375,122 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
     <col min="10" max="10" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" customWidth="1"/>
     <col min="14" max="14" width="9.42578125" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" customWidth="1"/>
-    <col min="22" max="22" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" customWidth="1"/>
+    <col min="23" max="23" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
+      <c r="J2" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="T2" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="39"/>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="J2" s="22" t="s">
+      <c r="H3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="24"/>
-      <c r="S2" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="24"/>
-    </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="37" t="s">
+      <c r="K3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="P3" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q3" s="36" t="s">
+      <c r="L3" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="O3" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="P3" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q3" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="R3" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="T3" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="U3" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="S3" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="T3" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="U3" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="V3" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="W3" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="X3" s="36" t="s">
-        <v>114</v>
+      <c r="V3" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="W3" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="X3" s="31" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -1195,22 +1498,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="38">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="33">
         <v>39823</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H4" s="14">
         <v>5</v>
@@ -1219,30 +1522,30 @@
         <v>1</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O4" s="41">
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="36">
         <v>26428</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q4" s="21">
+      <c r="P4" s="45">
         <v>10</v>
       </c>
-      <c r="S4" s="3">
-        <v>1</v>
-      </c>
-      <c r="T4" s="4">
+      <c r="Q4" s="2">
+        <v>3</v>
+      </c>
+      <c r="R4" s="21">
+        <v>10</v>
+      </c>
+      <c r="T4" s="3">
         <v>1</v>
       </c>
       <c r="U4" s="4">
@@ -1251,11 +1554,11 @@
       <c r="V4" s="4">
         <v>1</v>
       </c>
-      <c r="W4" s="31">
-        <v>44935.375</v>
-      </c>
-      <c r="X4" s="32">
-        <v>44935.40625</v>
+      <c r="W4" s="4">
+        <v>1</v>
+      </c>
+      <c r="X4" s="46">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -1263,67 +1566,67 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="34">
+        <v>39836</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="18">
+        <v>4</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2</v>
+      </c>
+      <c r="O5" s="34">
+        <v>29089</v>
+      </c>
+      <c r="P5" s="43">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="39">
-        <v>39836</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="18">
-        <v>4</v>
-      </c>
-      <c r="J5" s="6">
-        <v>2</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" s="39">
-        <v>29089</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="1">
+        <v>3</v>
+      </c>
+      <c r="R5" s="7">
         <v>12</v>
       </c>
-      <c r="S5" s="6">
-        <v>2</v>
-      </c>
-      <c r="T5" s="1">
-        <v>1</v>
+      <c r="T5" s="6">
+        <v>2</v>
       </c>
       <c r="U5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V5" s="1">
-        <v>1</v>
-      </c>
-      <c r="W5" s="30">
-        <v>44935.375</v>
-      </c>
-      <c r="X5" s="33">
-        <v>44935.40625</v>
+        <v>2</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1</v>
+      </c>
+      <c r="X5" s="47">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1331,22 +1634,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="39">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="34">
         <v>39859</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H6" s="18">
         <v>4</v>
@@ -1355,43 +1658,43 @@
         <v>3</v>
       </c>
       <c r="K6" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="O6" s="40">
+      <c r="N6" s="9">
+        <v>1</v>
+      </c>
+      <c r="O6" s="35">
         <v>32421</v>
       </c>
-      <c r="P6" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>4</v>
-      </c>
-      <c r="S6" s="6">
+      <c r="P6" s="44">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="9">
         <v>3</v>
       </c>
-      <c r="T6" s="1">
-        <v>2</v>
+      <c r="R6" s="10">
+        <v>4</v>
+      </c>
+      <c r="T6" s="6">
+        <v>3</v>
       </c>
       <c r="U6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V6" s="1">
         <v>1</v>
       </c>
-      <c r="W6" s="30">
-        <v>44935.375</v>
-      </c>
-      <c r="X6" s="33">
-        <v>44935.40625</v>
+      <c r="W6" s="1">
+        <v>1</v>
+      </c>
+      <c r="X6" s="47">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1399,43 +1702,40 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="39">
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="34">
         <v>39847</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H7" s="15">
         <v>5</v>
       </c>
-      <c r="S7" s="6">
-        <v>4</v>
-      </c>
-      <c r="T7" s="1">
-        <v>2</v>
+      <c r="T7" s="6">
+        <v>4</v>
       </c>
       <c r="U7" s="1">
         <v>2</v>
       </c>
       <c r="V7" s="1">
-        <v>1</v>
-      </c>
-      <c r="W7" s="30">
-        <v>44935.375</v>
-      </c>
-      <c r="X7" s="33">
-        <v>44935.40625</v>
+        <v>2</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1</v>
+      </c>
+      <c r="X7" s="47">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1443,47 +1743,49 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="39">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="34">
         <v>39879</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8" s="18">
         <v>4</v>
       </c>
-      <c r="J8" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="K8" s="24"/>
-      <c r="S8" s="6">
+      <c r="J8" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" s="39"/>
+      <c r="N8" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="O8" s="38"/>
+      <c r="P8" s="39"/>
+      <c r="T8" s="6">
         <v>5</v>
       </c>
-      <c r="T8" s="1">
+      <c r="U8" s="1">
         <v>3</v>
       </c>
-      <c r="U8" s="1">
-        <v>1</v>
-      </c>
       <c r="V8" s="1">
         <v>1</v>
       </c>
-      <c r="W8" s="30">
-        <v>44935.375</v>
-      </c>
-      <c r="X8" s="33">
-        <v>44935.40625</v>
+      <c r="W8" s="1">
+        <v>1</v>
+      </c>
+      <c r="X8" s="47">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1491,49 +1793,55 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="39">
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="34">
         <v>39925</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H9" s="19">
         <v>3</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="N9" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="S9" s="6">
+      <c r="P9" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="T9" s="6">
         <v>6</v>
       </c>
-      <c r="T9" s="1">
+      <c r="U9" s="1">
         <v>3</v>
       </c>
-      <c r="U9" s="1">
-        <v>2</v>
-      </c>
       <c r="V9" s="1">
-        <v>1</v>
-      </c>
-      <c r="W9" s="30">
-        <v>44935.375</v>
-      </c>
-      <c r="X9" s="33">
-        <v>44935.40625</v>
+        <v>2</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1</v>
+      </c>
+      <c r="X9" s="47">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -1541,22 +1849,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="39">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="34">
         <v>39919</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H10" s="15">
         <v>5</v>
@@ -1567,23 +1875,29 @@
       <c r="K10" s="5">
         <v>1</v>
       </c>
-      <c r="S10" s="6">
+      <c r="N10" s="20">
+        <v>1</v>
+      </c>
+      <c r="O10" s="40">
+        <v>44935.375</v>
+      </c>
+      <c r="P10" s="41">
+        <v>44935.40625</v>
+      </c>
+      <c r="T10" s="6">
         <v>7</v>
       </c>
-      <c r="T10" s="1">
-        <v>4</v>
-      </c>
       <c r="U10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V10" s="1">
         <v>1</v>
       </c>
-      <c r="W10" s="30">
-        <v>44935.375</v>
-      </c>
-      <c r="X10" s="33">
-        <v>44935.40625</v>
+      <c r="W10" s="1">
+        <v>1</v>
+      </c>
+      <c r="X10" s="47">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1591,22 +1905,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="39">
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="34">
         <v>40055</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H11" s="15">
         <v>5</v>
@@ -1617,23 +1931,29 @@
       <c r="K11" s="7">
         <v>1</v>
       </c>
-      <c r="S11" s="6">
+      <c r="N11" s="6">
+        <v>2</v>
+      </c>
+      <c r="O11" s="27">
+        <v>44935.416666666664</v>
+      </c>
+      <c r="P11" s="28">
+        <v>44936.447916608799</v>
+      </c>
+      <c r="T11" s="6">
         <v>8</v>
       </c>
-      <c r="T11" s="1">
-        <v>4</v>
-      </c>
       <c r="U11" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V11" s="1">
-        <v>1</v>
-      </c>
-      <c r="W11" s="30">
-        <v>44935.375</v>
-      </c>
-      <c r="X11" s="33">
-        <v>44935.40625</v>
+        <v>2</v>
+      </c>
+      <c r="W11" s="1">
+        <v>1</v>
+      </c>
+      <c r="X11" s="48">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -1641,22 +1961,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="39">
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="34">
         <v>40025</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H12" s="15">
         <v>5</v>
@@ -1667,73 +1987,85 @@
       <c r="K12" s="7">
         <v>2</v>
       </c>
-      <c r="S12" s="6">
+      <c r="N12" s="6">
+        <v>3</v>
+      </c>
+      <c r="O12" s="27">
+        <v>44935.458333333336</v>
+      </c>
+      <c r="P12" s="28">
+        <v>44936.489583333336</v>
+      </c>
+      <c r="T12" s="6">
         <v>9</v>
       </c>
-      <c r="T12" s="1">
-        <v>1</v>
-      </c>
       <c r="U12" s="1">
         <v>1</v>
       </c>
       <c r="V12" s="1">
+        <v>1</v>
+      </c>
+      <c r="W12" s="1">
         <v>3</v>
       </c>
-      <c r="W12" s="30">
-        <v>44935.416666666664</v>
-      </c>
-      <c r="X12" s="33">
-        <v>44935.447916666664</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X12" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="39">
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="34">
         <v>39949</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H13" s="15">
         <v>5</v>
       </c>
-      <c r="J13" s="25">
-        <v>4</v>
-      </c>
-      <c r="K13" s="26">
-        <v>2</v>
-      </c>
-      <c r="S13" s="6">
+      <c r="J13" s="22">
+        <v>4</v>
+      </c>
+      <c r="K13" s="23">
+        <v>2</v>
+      </c>
+      <c r="N13" s="8">
+        <v>4</v>
+      </c>
+      <c r="O13" s="29">
+        <v>44935.5</v>
+      </c>
+      <c r="P13" s="30">
+        <v>44935.53125</v>
+      </c>
+      <c r="T13" s="6">
         <v>10</v>
       </c>
-      <c r="T13" s="1">
-        <v>1</v>
-      </c>
       <c r="U13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V13" s="1">
+        <v>2</v>
+      </c>
+      <c r="W13" s="1">
         <v>3</v>
       </c>
-      <c r="W13" s="30">
-        <v>44935.416666666664</v>
-      </c>
-      <c r="X13" s="33">
-        <v>44936.447916608799</v>
+      <c r="X13" s="47">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -1741,49 +2073,46 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="39">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="34">
         <v>40057</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H14" s="15">
         <v>5</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="24">
         <v>5</v>
       </c>
       <c r="K14" s="17">
         <v>3</v>
       </c>
-      <c r="S14" s="6">
+      <c r="T14" s="6">
         <v>11</v>
       </c>
-      <c r="T14" s="1">
-        <v>2</v>
-      </c>
       <c r="U14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V14" s="1">
+        <v>1</v>
+      </c>
+      <c r="W14" s="1">
         <v>3</v>
       </c>
-      <c r="W14" s="30">
-        <v>44935.416666666664</v>
-      </c>
-      <c r="X14" s="33">
-        <v>44937.447916608799</v>
+      <c r="X14" s="47">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -1791,49 +2120,46 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="39">
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="34">
         <v>40067</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H15" s="18">
         <v>4</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="24">
         <v>6</v>
       </c>
       <c r="K15" s="17">
         <v>3</v>
       </c>
-      <c r="S15" s="6">
+      <c r="T15" s="6">
         <v>12</v>
       </c>
-      <c r="T15" s="1">
-        <v>2</v>
-      </c>
       <c r="U15" s="1">
         <v>2</v>
       </c>
       <c r="V15" s="1">
+        <v>2</v>
+      </c>
+      <c r="W15" s="1">
         <v>3</v>
       </c>
-      <c r="W15" s="30">
-        <v>44935.416666666664</v>
-      </c>
-      <c r="X15" s="33">
-        <v>44938.447916608799</v>
+      <c r="X15" s="47">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -1841,49 +2167,46 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="39">
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="34">
         <v>40130</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H16" s="18">
         <v>4</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="24">
         <v>7</v>
       </c>
       <c r="K16" s="17">
         <v>4</v>
       </c>
-      <c r="S16" s="6">
+      <c r="T16" s="6">
         <v>13</v>
       </c>
-      <c r="T16" s="1">
+      <c r="U16" s="1">
         <v>3</v>
       </c>
-      <c r="U16" s="1">
-        <v>1</v>
-      </c>
       <c r="V16" s="1">
+        <v>1</v>
+      </c>
+      <c r="W16" s="1">
         <v>3</v>
       </c>
-      <c r="W16" s="30">
-        <v>44935.416666666664</v>
-      </c>
-      <c r="X16" s="33">
-        <v>44939.447916608799</v>
+      <c r="X16" s="47">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1891,181 +2214,179 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="39">
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="34">
         <v>40177</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H17" s="15">
         <v>5</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="25">
         <v>8</v>
       </c>
-      <c r="K17" s="29">
-        <v>4</v>
-      </c>
-      <c r="S17" s="6">
+      <c r="K17" s="26">
+        <v>4</v>
+      </c>
+      <c r="T17" s="6">
         <v>14</v>
       </c>
-      <c r="T17" s="1">
+      <c r="U17" s="1">
         <v>3</v>
       </c>
-      <c r="U17" s="1">
-        <v>2</v>
-      </c>
       <c r="V17" s="1">
+        <v>2</v>
+      </c>
+      <c r="W17" s="1">
         <v>3</v>
       </c>
-      <c r="W17" s="30">
-        <v>44935.416666666664</v>
-      </c>
-      <c r="X17" s="33">
-        <v>44940.447916608799</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X17" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="39">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="34">
         <v>39954</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H18" s="18">
         <v>4</v>
       </c>
-      <c r="S18" s="6">
+      <c r="T18" s="6">
         <v>15</v>
       </c>
-      <c r="T18" s="1">
-        <v>4</v>
-      </c>
       <c r="U18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V18" s="1">
+        <v>1</v>
+      </c>
+      <c r="W18" s="1">
         <v>3</v>
       </c>
-      <c r="W18" s="30">
-        <v>44935.416666666664</v>
-      </c>
-      <c r="X18" s="33">
-        <v>44941.447916608799</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X18" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="39">
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="34">
         <v>39960</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H19" s="19">
         <v>3</v>
       </c>
-      <c r="S19" s="6">
+      <c r="J19" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="K19" s="52"/>
+      <c r="T19" s="6">
         <v>16</v>
       </c>
-      <c r="T19" s="1">
-        <v>4</v>
-      </c>
       <c r="U19" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V19" s="1">
+        <v>2</v>
+      </c>
+      <c r="W19" s="1">
         <v>3</v>
       </c>
-      <c r="W19" s="30">
-        <v>44935.416666666664</v>
-      </c>
-      <c r="X19" s="33">
-        <v>44942.447916608799</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X19" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="39">
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="34">
         <v>39264</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H20" s="19">
         <v>3</v>
       </c>
-      <c r="S20" s="6">
+      <c r="J20" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="T20" s="6">
         <v>17</v>
       </c>
-      <c r="T20" s="1">
-        <v>1</v>
-      </c>
       <c r="U20" s="1">
         <v>1</v>
       </c>
       <c r="V20" s="1">
-        <v>2</v>
-      </c>
-      <c r="W20" s="30">
-        <v>44935.5</v>
-      </c>
-      <c r="X20" s="33">
-        <v>44935.53125</v>
+        <v>1</v>
+      </c>
+      <c r="W20" s="1">
+        <v>2</v>
+      </c>
+      <c r="X20" s="47">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -2073,87 +2394,93 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="39">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="34">
         <v>39301</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H21" s="18">
         <v>4</v>
       </c>
-      <c r="S21" s="6">
+      <c r="J21" s="20">
+        <v>1</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="T21" s="6">
         <v>18</v>
       </c>
-      <c r="T21" s="1">
-        <v>1</v>
-      </c>
       <c r="U21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V21" s="1">
         <v>2</v>
       </c>
-      <c r="W21" s="30">
-        <v>44935.5</v>
-      </c>
-      <c r="X21" s="33">
-        <v>44935.53125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W21" s="1">
+        <v>2</v>
+      </c>
+      <c r="X21" s="47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="34">
+        <v>39369</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="18">
+        <v>4</v>
+      </c>
+      <c r="J22" s="8">
+        <v>2</v>
+      </c>
+      <c r="K22" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="39">
-        <v>39369</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="18">
-        <v>4</v>
-      </c>
-      <c r="S22" s="6">
+      <c r="T22" s="6">
         <v>19</v>
       </c>
-      <c r="T22" s="1">
-        <v>2</v>
-      </c>
       <c r="U22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V22" s="1">
-        <v>2</v>
-      </c>
-      <c r="W22" s="30">
-        <v>44935.5</v>
-      </c>
-      <c r="X22" s="33">
-        <v>44935.53125</v>
+        <v>1</v>
+      </c>
+      <c r="W22" s="1">
+        <v>2</v>
+      </c>
+      <c r="X22" s="47">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -2161,43 +2488,40 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="39">
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="34">
         <v>39437</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H23" s="15">
         <v>5</v>
       </c>
-      <c r="S23" s="6">
+      <c r="T23" s="6">
         <v>20</v>
       </c>
-      <c r="T23" s="1">
-        <v>2</v>
-      </c>
       <c r="U23" s="1">
         <v>2</v>
       </c>
       <c r="V23" s="1">
         <v>2</v>
       </c>
-      <c r="W23" s="30">
-        <v>44935.5</v>
-      </c>
-      <c r="X23" s="33">
-        <v>44935.53125</v>
+      <c r="W23" s="1">
+        <v>2</v>
+      </c>
+      <c r="X23" s="47">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
@@ -2205,43 +2529,40 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="39">
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="34">
         <v>39100</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H24" s="15">
         <v>5</v>
       </c>
-      <c r="S24" s="6">
+      <c r="T24" s="6">
         <v>21</v>
       </c>
-      <c r="T24" s="1">
+      <c r="U24" s="1">
         <v>3</v>
       </c>
-      <c r="U24" s="1">
-        <v>1</v>
-      </c>
       <c r="V24" s="1">
-        <v>2</v>
-      </c>
-      <c r="W24" s="30">
-        <v>44935.5</v>
-      </c>
-      <c r="X24" s="33">
-        <v>44935.53125</v>
+        <v>1</v>
+      </c>
+      <c r="W24" s="1">
+        <v>2</v>
+      </c>
+      <c r="X24" s="47">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
@@ -2249,43 +2570,40 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="39">
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="34">
         <v>39261</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H25" s="15">
         <v>5</v>
       </c>
-      <c r="S25" s="6">
+      <c r="T25" s="6">
         <v>22</v>
       </c>
-      <c r="T25" s="1">
+      <c r="U25" s="1">
         <v>3</v>
       </c>
-      <c r="U25" s="1">
-        <v>2</v>
-      </c>
       <c r="V25" s="1">
         <v>2</v>
       </c>
-      <c r="W25" s="30">
-        <v>44935.5</v>
-      </c>
-      <c r="X25" s="33">
-        <v>44935.53125</v>
+      <c r="W25" s="1">
+        <v>2</v>
+      </c>
+      <c r="X25" s="47">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
@@ -2293,43 +2611,40 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="39">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="34">
         <v>39191</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H26" s="15">
         <v>5</v>
       </c>
-      <c r="S26" s="6">
+      <c r="T26" s="6">
         <v>23</v>
       </c>
-      <c r="T26" s="1">
-        <v>4</v>
-      </c>
       <c r="U26" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V26" s="1">
-        <v>2</v>
-      </c>
-      <c r="W26" s="30">
-        <v>44935.5</v>
-      </c>
-      <c r="X26" s="33">
-        <v>44935.53125</v>
+        <v>1</v>
+      </c>
+      <c r="W26" s="1">
+        <v>2</v>
+      </c>
+      <c r="X26" s="47">
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -2337,43 +2652,40 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="39">
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="34">
         <v>39240</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H27" s="18">
         <v>4</v>
       </c>
-      <c r="S27" s="6">
+      <c r="T27" s="6">
         <v>24</v>
       </c>
-      <c r="T27" s="1">
-        <v>4</v>
-      </c>
       <c r="U27" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V27" s="1">
         <v>2</v>
       </c>
-      <c r="W27" s="30">
-        <v>44935.5</v>
-      </c>
-      <c r="X27" s="33">
-        <v>44935.53125</v>
+      <c r="W27" s="1">
+        <v>2</v>
+      </c>
+      <c r="X27" s="47">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -2381,43 +2693,40 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="39">
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="34">
         <v>39286</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H28" s="19">
         <v>3</v>
       </c>
-      <c r="S28" s="6">
+      <c r="T28" s="6">
         <v>25</v>
       </c>
-      <c r="T28" s="1">
+      <c r="U28" s="1">
         <v>5</v>
       </c>
-      <c r="U28" s="1">
-        <v>1</v>
-      </c>
       <c r="V28" s="1">
-        <v>2</v>
-      </c>
-      <c r="W28" s="30">
-        <v>44935.5</v>
-      </c>
-      <c r="X28" s="33">
-        <v>44935.53125</v>
+        <v>1</v>
+      </c>
+      <c r="W28" s="1">
+        <v>2</v>
+      </c>
+      <c r="X28" s="47">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
@@ -2425,43 +2734,40 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="39">
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="34">
         <v>39170</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H29" s="19">
         <v>3</v>
       </c>
-      <c r="S29" s="6">
+      <c r="T29" s="6">
         <v>26</v>
       </c>
-      <c r="T29" s="1">
+      <c r="U29" s="1">
         <v>5</v>
       </c>
-      <c r="U29" s="1">
-        <v>2</v>
-      </c>
       <c r="V29" s="1">
         <v>2</v>
       </c>
-      <c r="W29" s="30">
-        <v>44935.5</v>
-      </c>
-      <c r="X29" s="33">
-        <v>44935.53125</v>
+      <c r="W29" s="1">
+        <v>2</v>
+      </c>
+      <c r="X29" s="47">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
@@ -2469,43 +2775,40 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="39">
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
+      <c r="F30" s="34">
         <v>39404</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H30" s="18">
         <v>4</v>
       </c>
-      <c r="S30" s="6">
+      <c r="T30" s="6">
         <v>27</v>
       </c>
-      <c r="T30" s="1">
+      <c r="U30" s="1">
         <v>6</v>
       </c>
-      <c r="U30" s="1">
-        <v>1</v>
-      </c>
       <c r="V30" s="1">
-        <v>2</v>
-      </c>
-      <c r="W30" s="30">
-        <v>44935.5</v>
-      </c>
-      <c r="X30" s="33">
-        <v>44935.53125</v>
+        <v>1</v>
+      </c>
+      <c r="W30" s="1">
+        <v>2</v>
+      </c>
+      <c r="X30" s="47">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -2513,43 +2816,40 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" s="39">
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="34">
         <v>39376</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H31" s="18">
         <v>4</v>
       </c>
-      <c r="S31" s="6">
+      <c r="T31" s="6">
         <v>28</v>
       </c>
-      <c r="T31" s="1">
+      <c r="U31" s="1">
         <v>6</v>
       </c>
-      <c r="U31" s="1">
-        <v>2</v>
-      </c>
       <c r="V31" s="1">
         <v>2</v>
       </c>
-      <c r="W31" s="30">
-        <v>44935.5</v>
-      </c>
-      <c r="X31" s="33">
-        <v>44935.53125</v>
+      <c r="W31" s="1">
+        <v>2</v>
+      </c>
+      <c r="X31" s="47">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
@@ -2557,43 +2857,40 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F32" s="39">
+        <v>62</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="34">
         <v>39197</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H32" s="15">
         <v>5</v>
       </c>
-      <c r="S32" s="6">
+      <c r="T32" s="6">
         <v>29</v>
       </c>
-      <c r="T32" s="1">
+      <c r="U32" s="1">
         <v>7</v>
       </c>
-      <c r="U32" s="1">
-        <v>1</v>
-      </c>
       <c r="V32" s="1">
-        <v>2</v>
-      </c>
-      <c r="W32" s="30">
-        <v>44935.5</v>
-      </c>
-      <c r="X32" s="33">
-        <v>44935.53125</v>
+        <v>1</v>
+      </c>
+      <c r="W32" s="1">
+        <v>2</v>
+      </c>
+      <c r="X32" s="47">
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
@@ -2601,43 +2898,40 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F33" s="39">
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="34">
         <v>39340</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H33" s="15">
         <v>5</v>
       </c>
-      <c r="S33" s="6">
+      <c r="T33" s="6">
         <v>30</v>
       </c>
-      <c r="T33" s="1">
+      <c r="U33" s="1">
         <v>7</v>
       </c>
-      <c r="U33" s="1">
-        <v>2</v>
-      </c>
       <c r="V33" s="1">
         <v>2</v>
       </c>
-      <c r="W33" s="30">
-        <v>44935.5</v>
-      </c>
-      <c r="X33" s="33">
-        <v>44935.53125</v>
+      <c r="W33" s="1">
+        <v>2</v>
+      </c>
+      <c r="X33" s="47">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
@@ -2645,43 +2939,40 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="D34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" s="39">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="34">
         <v>39121</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H34" s="18">
         <v>4</v>
       </c>
-      <c r="S34" s="6">
+      <c r="T34" s="6">
         <v>31</v>
       </c>
-      <c r="T34" s="1">
+      <c r="U34" s="1">
         <v>8</v>
       </c>
-      <c r="U34" s="1">
-        <v>1</v>
-      </c>
       <c r="V34" s="1">
-        <v>2</v>
-      </c>
-      <c r="W34" s="30">
-        <v>44935.5</v>
-      </c>
-      <c r="X34" s="33">
-        <v>44935.53125</v>
+        <v>1</v>
+      </c>
+      <c r="W34" s="1">
+        <v>2</v>
+      </c>
+      <c r="X34" s="47">
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2689,64 +2980,920 @@
         <v>32</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="D35" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" s="40">
+      <c r="E35" s="9">
+        <v>2</v>
+      </c>
+      <c r="F35" s="35">
         <v>39406</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H35" s="16">
         <v>5</v>
       </c>
-      <c r="S35" s="8">
+      <c r="T35" s="8">
         <v>32</v>
       </c>
-      <c r="T35" s="9">
+      <c r="U35" s="9">
         <v>8</v>
       </c>
-      <c r="U35" s="9">
-        <v>2</v>
-      </c>
       <c r="V35" s="9">
         <v>2</v>
       </c>
-      <c r="W35" s="34">
-        <v>44935.5</v>
-      </c>
-      <c r="X35" s="35">
-        <v>44935.53125</v>
+      <c r="W35" s="9">
+        <v>2</v>
+      </c>
+      <c r="X35" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="60"/>
+    </row>
+    <row r="38" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D39" s="20">
+        <v>1</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D40" s="6">
+        <v>2</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D41" s="6">
+        <v>3</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D42" s="6">
+        <v>4</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D43" s="6">
+        <v>5</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D44" s="6">
+        <v>6</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D45" s="6">
+        <v>7</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D46" s="6">
+        <v>8</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D47" s="6">
+        <v>9</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D48" s="6">
+        <v>10</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D49" s="6">
+        <v>11</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D50" s="6">
+        <v>12</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D51" s="6">
+        <v>13</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D52" s="6">
+        <v>14</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D53" s="6">
+        <v>15</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D54" s="6">
+        <v>16</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D55" s="8">
+        <v>17</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="4:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="E57" s="64"/>
+    </row>
+    <row r="58" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="E58" s="42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D59" s="20">
+        <v>1</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="61">
+        <v>2</v>
+      </c>
+      <c r="E60" s="62" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="8">
+        <v>3</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D57:E57"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="J2:R2"/>
     <mergeCell ref="J8:K8"/>
-    <mergeCell ref="S2:X2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="N8:P8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+    </row>
+    <row r="3" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="1">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="9">
+        <v>8</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+    </row>
+    <row r="14" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="56">
+        <v>8</v>
+      </c>
+      <c r="D15" s="67" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="54">
+        <v>20</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="54">
+        <v>20</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="54">
+        <v>20</v>
+      </c>
+      <c r="D18" s="62" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="54">
+        <v>8</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="54">
+        <v>16</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="54">
+        <v>8</v>
+      </c>
+      <c r="D21" s="62" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="54">
+        <v>8</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="70">
+        <v>8</v>
+      </c>
+      <c r="D23" s="71" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
+    </row>
+    <row r="26" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="2">
+        <v>8</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="9">
+        <v>8</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
+    </row>
+    <row r="31" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="65" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="4">
+        <v>8</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="1">
+        <v>24</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="9">
+        <v>24</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="39"/>
+    </row>
+    <row r="37" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="65" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="4">
+        <v>8</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="9">
+        <v>16</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="39"/>
+    </row>
+    <row r="42" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="65" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="56">
+        <v>8</v>
+      </c>
+      <c r="D43" s="67" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="9">
+        <v>16</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="39"/>
+    </row>
+    <row r="47" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="65" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="56">
+        <v>8</v>
+      </c>
+      <c r="D48" s="67" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="9">
+        <v>16</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="39"/>
+    </row>
+    <row r="52" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="65" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="4">
+        <v>8</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="1">
+        <v>8</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="1">
+        <v>8</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="54">
+        <v>8</v>
+      </c>
+      <c r="D56" s="62" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="9">
+        <v>8</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A41:D41"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>